--- a/Automations/Termine.xlsx
+++ b/Automations/Termine.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PythonProjekte\ChurchTools_Automations\Automations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\PycharmProjects\ChurchToolsAPI\Automations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A81530B-0762-419A-8103-BC027B09572A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287415B8-166A-4331-8090-1C4F6CD35777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Termine" sheetId="1" r:id="rId1"/>
+    <sheet name="Metadaten" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
     <author>Richard Huck</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{948CD515-D6D5-416B-80AD-CAE5E96ADC6A}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{948CD515-D6D5-416B-80AD-CAE5E96ADC6A}">
       <text>
         <r>
           <rPr>
@@ -54,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{D0F5D777-6025-482B-B25F-42DD3D5BD424}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{D0F5D777-6025-482B-B25F-42DD3D5BD424}">
       <text>
         <r>
           <rPr>
@@ -79,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{DECBC08B-1123-478A-A4E2-DDF2624C357B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{DECBC08B-1123-478A-A4E2-DDF2624C357B}">
       <text>
         <r>
           <rPr>
@@ -105,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H2" authorId="0" shapeId="0" xr:uid="{FFC5A0A9-1858-444F-8E49-9BB279999E19}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FFC5A0A9-1858-444F-8E49-9BB279999E19}">
       <text>
         <r>
           <rPr>
@@ -134,7 +135,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>Datum Start</t>
   </si>
@@ -185,6 +186,9 @@
   </si>
   <si>
     <t>Kalendername oder KalenderID:</t>
+  </si>
+  <si>
+    <t>CT-Token</t>
   </si>
 </sst>
 </file>
@@ -246,12 +250,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -533,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -548,47 +553,59 @@
     <col min="5" max="5" width="28.54296875" customWidth="1"/>
     <col min="6" max="6" width="54.7265625" customWidth="1"/>
     <col min="7" max="7" width="38.1796875" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="3"/>
-      <c r="C1">
-        <v>149</v>
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>45103</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="2">
+        <v>0.85416666666666663</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.95833333333333337</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
-        <v>45103</v>
+        <v>45275</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="2">
@@ -601,75 +618,83 @@
         <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
-        <v>45275</v>
-      </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="2">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="D4" s="2">
-        <v>0.95833333333333337</v>
+        <v>45104</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
-        <v>45104</v>
+        <v>45105</v>
+      </c>
+      <c r="B5" s="1">
+        <v>45106</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.75</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
-        <v>45105</v>
+        <v>45108</v>
       </c>
       <c r="B6" s="1">
-        <v>45106</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.75</v>
+        <v>45110</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>45108</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45110</v>
-      </c>
-      <c r="E7" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C88F1D-9B5C-4E68-96CF-96F8130EE6EE}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="4">
+        <v>149</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Automations/Termine.xlsx
+++ b/Automations/Termine.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richa\PycharmProjects\ChurchToolsAPI\Automations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{287415B8-166A-4331-8090-1C4F6CD35777}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40EC0A95-3109-461D-AFB6-6DB23F960393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Termine" sheetId="1" r:id="rId1"/>
     <sheet name="Metadaten" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Termine!$A$1:$H$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -188,14 +191,14 @@
     <t>Kalendername oder KalenderID:</t>
   </si>
   <si>
-    <t>CT-Token</t>
+    <t>Testkalender Python</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +232,14 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -255,9 +266,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,48 +550,47 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.81640625" customWidth="1"/>
-    <col min="3" max="3" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.54296875" customWidth="1"/>
-    <col min="6" max="6" width="54.7265625" customWidth="1"/>
-    <col min="7" max="7" width="38.1796875" customWidth="1"/>
-    <col min="8" max="8" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.77734375" customWidth="1"/>
+    <col min="2" max="3" width="15.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.88671875" customWidth="1"/>
+    <col min="6" max="6" width="54.77734375" customWidth="1"/>
+    <col min="7" max="7" width="38.21875" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>45103</v>
       </c>
@@ -603,7 +611,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>45275</v>
       </c>
@@ -624,7 +632,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>45104</v>
       </c>
@@ -632,7 +640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>45105</v>
       </c>
@@ -649,18 +657,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>45108</v>
       </c>
       <c r="B6" s="1">
         <v>45110</v>
       </c>
+      <c r="C6" s="2"/>
       <c r="E6" t="s">
         <v>15</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:H1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -668,30 +678,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34C88F1D-9B5C-4E68-96CF-96F8130EE6EE}">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12E8E960-C7A9-4023-9D6C-BF1C76C4ADD5}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="1" max="1" width="30" customWidth="1"/>
+    <col min="2" max="2" width="21.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="4">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
